--- a/ddcc/StructureDefinition-DDCCTRDocumentSigned.xlsx
+++ b/ddcc/StructureDefinition-DDCCTRDocumentSigned.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -51,7 +51,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-15T11:00:36+02:00</t>
+    <t>2024-12-18T16:46:48+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
